--- a/projeto_modelagem_dados/dicionario_dados_faculdade.xlsx
+++ b/projeto_modelagem_dados/dicionario_dados_faculdade.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UFAC\Desktop\Rafael_estagiario\sql_curso\projeto_modelagem_dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UFAC\Desktop\Rafael_estagiario\Estudos-com-banco-de-dados\projeto_modelagem_dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8F59D0-C558-42AB-959B-0D8523FDB689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFEED68E-9F91-4FED-A3E8-961AF65191F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{72CFEED6-46B0-4B6F-91FD-0A2F16EB579F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{72CFEED6-46B0-4B6F-91FD-0A2F16EB579F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="204">
   <si>
     <t>Aluno</t>
   </si>
@@ -321,9 +321,6 @@
     <t>data</t>
   </si>
   <si>
-    <t>10 bytes</t>
-  </si>
-  <si>
     <t>2 bytes</t>
   </si>
   <si>
@@ -354,9 +351,6 @@
     <t>CPF</t>
   </si>
   <si>
-    <t>telefone</t>
-  </si>
-  <si>
     <t>8 bytes</t>
   </si>
   <si>
@@ -372,9 +366,6 @@
     <t>1 byte</t>
   </si>
   <si>
-    <t>25 bytes</t>
-  </si>
-  <si>
     <t>Nome do aluno</t>
   </si>
   <si>
@@ -387,39 +378,12 @@
     <t>Status da matrícula do aluno</t>
   </si>
   <si>
-    <t>Telefone da matrícula do aluno</t>
-  </si>
-  <si>
-    <t>Formas de contato com o aluno</t>
-  </si>
-  <si>
-    <t>contato</t>
-  </si>
-  <si>
     <t>id_turma</t>
   </si>
   <si>
     <t>sexo</t>
   </si>
   <si>
-    <t>filiação</t>
-  </si>
-  <si>
-    <t>Rua</t>
-  </si>
-  <si>
-    <t>Número</t>
-  </si>
-  <si>
-    <t>CEP</t>
-  </si>
-  <si>
-    <t>80 Bytes</t>
-  </si>
-  <si>
-    <t>endereço:</t>
-  </si>
-  <si>
     <t>80 bytes</t>
   </si>
   <si>
@@ -432,30 +396,12 @@
     <t>sexo do aluno</t>
   </si>
   <si>
-    <t>Rua do aluno</t>
-  </si>
-  <si>
-    <t>CEP do aluno</t>
-  </si>
-  <si>
-    <t>nome da mãe do aluno</t>
-  </si>
-  <si>
-    <t>Número  da casa do aluno</t>
-  </si>
-  <si>
     <t>nome_disciplina</t>
   </si>
   <si>
     <t>carga_horaria</t>
   </si>
   <si>
-    <t>30 B</t>
-  </si>
-  <si>
-    <t>200 B</t>
-  </si>
-  <si>
     <t>NULL</t>
   </si>
   <si>
@@ -474,15 +420,9 @@
     <t>id_aluno</t>
   </si>
   <si>
-    <t>periodo_realização</t>
-  </si>
-  <si>
     <t>Códiog de identificação do histórico</t>
   </si>
   <si>
-    <t>Duração de realização da disciplina (em meses)</t>
-  </si>
-  <si>
     <t>Entidade Disciplina_histórico</t>
   </si>
   <si>
@@ -532,13 +472,187 @@
   </si>
   <si>
     <t>Tabela associativa entre Aluno e Disciplina</t>
+  </si>
+  <si>
+    <t>Endereco_Aluno</t>
+  </si>
+  <si>
+    <t>Tipo_Logradouro</t>
+  </si>
+  <si>
+    <t>É do Tipo</t>
+  </si>
+  <si>
+    <t>Tabela para registro dos endereços dos aluno</t>
+  </si>
+  <si>
+    <t>Tabela de registro dos tipos de logradouros</t>
+  </si>
+  <si>
+    <t>Telefones_Aluno</t>
+  </si>
+  <si>
+    <t>Tipo_Telefone</t>
+  </si>
+  <si>
+    <t>Define</t>
+  </si>
+  <si>
+    <t>Descrição dos tipos de telefones aceitos.</t>
+  </si>
+  <si>
+    <t>Tabela para registro dos telefones dos alunos</t>
+  </si>
+  <si>
+    <t>Entidade Tipo_Logradouro</t>
+  </si>
+  <si>
+    <t>Entidade Endereco_Aluno</t>
+  </si>
+  <si>
+    <t>id_endereco_aluno</t>
+  </si>
+  <si>
+    <t>id_tipo_logradouro</t>
+  </si>
+  <si>
+    <t>nome_rua</t>
+  </si>
+  <si>
+    <t>num_rua</t>
+  </si>
+  <si>
+    <t>complemento</t>
+  </si>
+  <si>
+    <t>cep</t>
+  </si>
+  <si>
+    <t>20 bytes</t>
+  </si>
+  <si>
+    <t>12 bytes</t>
+  </si>
+  <si>
+    <t>Código de identificação do endereço do aluno</t>
+  </si>
+  <si>
+    <t>Código de identificação do tipo de logradouro</t>
+  </si>
+  <si>
+    <t>nome da rua</t>
+  </si>
+  <si>
+    <t>número da casa</t>
+  </si>
+  <si>
+    <t>tipo da residencia</t>
+  </si>
+  <si>
+    <t>cep da casa</t>
+  </si>
+  <si>
+    <t>tipo_logradouro</t>
+  </si>
+  <si>
+    <t>Código de identificação do tipo do logradouro</t>
+  </si>
+  <si>
+    <t>descrição do logradouro</t>
+  </si>
+  <si>
+    <t>id_telefones_aluno</t>
+  </si>
+  <si>
+    <t>Código de identificação do telefone do aluno</t>
+  </si>
+  <si>
+    <t>id_tipo_telefone</t>
+  </si>
+  <si>
+    <t>Código de identificação do tipo do telefone do aluno</t>
+  </si>
+  <si>
+    <t>num_telefone</t>
+  </si>
+  <si>
+    <t>character</t>
+  </si>
+  <si>
+    <t>Número de telefone do aluno</t>
+  </si>
+  <si>
+    <t>Código de identificação do tipo do telefone</t>
+  </si>
+  <si>
+    <t>tipo_telefone</t>
+  </si>
+  <si>
+    <t>tipo do telefone do aluno</t>
+  </si>
+  <si>
+    <t>Entidade Telefones_Aluno</t>
+  </si>
+  <si>
+    <t>Entidade Tipo_Telefone</t>
+  </si>
+  <si>
+    <t>50 bytes</t>
+  </si>
+  <si>
+    <t>5 bytes</t>
+  </si>
+  <si>
+    <t>11 bytes</t>
+  </si>
+  <si>
+    <t>NOT NULL, UNIQUE</t>
+  </si>
+  <si>
+    <t>whatsapp</t>
+  </si>
+  <si>
+    <t>whatsapp do aluno</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>60 bytes</t>
+  </si>
+  <si>
+    <t>E-mail do aluno</t>
+  </si>
+  <si>
+    <t>nome_mãe</t>
+  </si>
+  <si>
+    <t>nome_pai</t>
+  </si>
+  <si>
+    <t>Nome da mãe do aluno</t>
+  </si>
+  <si>
+    <t>Nome do pai do aluno</t>
+  </si>
+  <si>
+    <t>30 Bytes</t>
+  </si>
+  <si>
+    <t>200 bytes</t>
+  </si>
+  <si>
+    <t>Data de início do curso</t>
+  </si>
+  <si>
+    <t>Data em que o aluno finalizou o curso</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -570,15 +684,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -600,7 +705,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -706,19 +811,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -754,41 +846,32 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -799,34 +882,54 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1141,71 +1244,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEE9A483-A053-4B4C-92BF-5E14D3ED91A6}">
-  <dimension ref="B3:L77"/>
+  <dimension ref="B3:R94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45:L95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.140625" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" customWidth="1"/>
     <col min="6" max="6" width="4.140625" customWidth="1"/>
     <col min="7" max="7" width="4.5703125" customWidth="1"/>
     <col min="8" max="8" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.5703125" customWidth="1"/>
-    <col min="12" max="12" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="17" t="s">
+    <row r="3" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19"/>
-      <c r="H4" s="17" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
+      <c r="H4" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="19"/>
-    </row>
-    <row r="5" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="12"/>
+    </row>
+    <row r="5" spans="2:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="16"/>
-    </row>
-    <row r="7" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="21" t="s">
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="17"/>
+      <c r="N6" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="17"/>
+    </row>
+    <row r="7" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1214,42 +1333,57 @@
       <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="L7" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="21"/>
+      <c r="N7" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="O7" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="P7" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q7" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="R7" s="21" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="14"/>
       <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="23"/>
-      <c r="H8" s="7" t="s">
+      <c r="E8" s="13"/>
+      <c r="H8" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>55</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>57</v>
@@ -1257,24 +1391,39 @@
       <c r="L8" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="21"/>
+      <c r="N8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B9" s="14"/>
       <c r="C9" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="23"/>
-      <c r="H9" s="7" t="s">
+      <c r="E9" s="13"/>
+      <c r="H9" s="4" t="s">
         <v>59</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>60</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>61</v>
+        <v>164</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>62</v>
@@ -1282,9 +1431,24 @@
       <c r="L9" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="10" spans="2:12" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="8"/>
+      <c r="N9" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1293,9 +1457,24 @@
       <c r="J10" s="26"/>
       <c r="K10" s="26"/>
       <c r="L10" s="26"/>
-    </row>
-    <row r="11" spans="2:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="24" t="s">
+      <c r="N10" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1304,34 +1483,39 @@
       <c r="D11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="20" t="s">
+      <c r="H11" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-    </row>
-    <row r="12" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="25"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
+    </row>
+    <row r="12" spans="2:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="14"/>
       <c r="C12" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="23"/>
-      <c r="H12" s="7" t="s">
+      <c r="E12" s="13"/>
+      <c r="H12" s="4" t="s">
         <v>6</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>67</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>57</v>
@@ -1339,20 +1523,27 @@
       <c r="L12" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="13" spans="2:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="8"/>
+      <c r="N12" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+    </row>
+    <row r="13" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="4" t="s">
         <v>75</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>68</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>61</v>
+        <v>164</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>62</v>
@@ -1360,9 +1551,24 @@
       <c r="L13" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="24" t="s">
+      <c r="N13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1371,17 +1577,17 @@
       <c r="D14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="4" t="s">
         <v>76</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>68</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>61</v>
+        <v>187</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>62</v>
@@ -1389,24 +1595,39 @@
       <c r="L14" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="15" spans="2:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="25"/>
+      <c r="N14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="14"/>
       <c r="C15" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="23"/>
-      <c r="H15" s="7" t="s">
+      <c r="E15" s="13"/>
+      <c r="H15" s="4" t="s">
         <v>5</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>67</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>69</v>
@@ -1414,13 +1635,18 @@
       <c r="L15" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="16" spans="2:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="9"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="H16" s="7" t="s">
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+    </row>
+    <row r="16" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="H16" s="4" t="s">
         <v>77</v>
       </c>
       <c r="I16" s="1" t="s">
@@ -1435,53 +1661,90 @@
       <c r="L16" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="17" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="21" t="s">
+      <c r="N16" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B17" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-    </row>
-    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="21"/>
-      <c r="C18" s="6" t="s">
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="N17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="14"/>
+      <c r="C18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="23"/>
-      <c r="H18" s="27" t="s">
+      <c r="E18" s="13"/>
+      <c r="H18" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="21"/>
-      <c r="C19" s="6" t="s">
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="N18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B19" s="14"/>
+      <c r="C19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="23"/>
-      <c r="H19" s="7" t="s">
+      <c r="E19" s="13"/>
+      <c r="H19" s="4" t="s">
         <v>85</v>
       </c>
       <c r="I19" s="1" t="s">
@@ -1496,17 +1759,22 @@
       <c r="L19" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="21"/>
-      <c r="C20" s="6" t="s">
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+    </row>
+    <row r="20" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="14"/>
+      <c r="C20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="23"/>
-      <c r="H20" s="7" t="s">
+      <c r="E20" s="13"/>
+      <c r="H20" s="4" t="s">
         <v>86</v>
       </c>
       <c r="I20" s="1" t="s">
@@ -1521,13 +1789,20 @@
       <c r="L20" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="21" spans="2:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="9"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="H21" s="7" t="s">
+      <c r="N20" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+    </row>
+    <row r="21" spans="2:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="H21" s="4" t="s">
         <v>4</v>
       </c>
       <c r="I21" s="1" t="s">
@@ -1542,9 +1817,24 @@
       <c r="L21" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="22" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="21" t="s">
+      <c r="N21" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B22" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -1553,74 +1843,101 @@
       <c r="D22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-    </row>
-    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="21"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="N22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="14"/>
       <c r="C23" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="23"/>
-      <c r="H23" s="27" t="s">
+      <c r="E23" s="13"/>
+      <c r="H23" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="21"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+    </row>
+    <row r="24" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="14"/>
       <c r="C24" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="23"/>
-      <c r="H24" s="7" t="s">
+      <c r="E24" s="13"/>
+      <c r="H24" s="4" t="s">
         <v>90</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>67</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>57</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="21"/>
+        <v>96</v>
+      </c>
+      <c r="N24" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B25" s="14"/>
       <c r="C25" s="1" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="23"/>
-      <c r="H25" s="7" t="s">
+      <c r="E25" s="13"/>
+      <c r="H25" s="4" t="s">
         <v>85</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>67</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>69</v>
@@ -1628,67 +1945,112 @@
       <c r="L25" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="26" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="9"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="H26" s="7" t="s">
+      <c r="N25" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="H26" s="4" t="s">
         <v>91</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>68</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>95</v>
+        <v>188</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>62</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B27" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E27" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="E27" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="H27" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>67</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>62</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="21"/>
+        <v>98</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B28" s="14"/>
       <c r="C28" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="23"/>
-      <c r="H28" s="7" t="s">
+      <c r="E28" s="13"/>
+      <c r="H28" s="4" t="s">
         <v>92</v>
       </c>
       <c r="I28" s="1" t="s">
@@ -1701,19 +2063,34 @@
         <v>62</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="21"/>
+        <v>99</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B29" s="14"/>
       <c r="C29" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="23"/>
-      <c r="H29" s="7" t="s">
+      <c r="E29" s="13"/>
+      <c r="H29" s="4" t="s">
         <v>93</v>
       </c>
       <c r="I29" s="1" t="s">
@@ -1726,89 +2103,146 @@
         <v>62</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="21"/>
+        <v>100</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B30" s="14"/>
       <c r="C30" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="23"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-    </row>
-    <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="21"/>
+      <c r="E30" s="13"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="N30" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="14"/>
       <c r="C31" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E31" s="23"/>
-      <c r="H31" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="21"/>
+      <c r="E31" s="13"/>
+      <c r="H31" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="N31" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B32" s="14"/>
       <c r="C32" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E32" s="23"/>
-      <c r="H32" s="7" t="s">
-        <v>108</v>
+      <c r="E32" s="13"/>
+      <c r="H32" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>68</v>
       </c>
       <c r="J32" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K32" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="K32" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="L32" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="9"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="H33" s="7" t="s">
-        <v>103</v>
+        <v>108</v>
+      </c>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="29"/>
+    </row>
+    <row r="33" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="5"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="H33" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>68</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>112</v>
+        <v>164</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>62</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="N33" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="22"/>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B34" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -1817,73 +2251,108 @@
       <c r="D34" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E34" s="23" t="s">
+      <c r="E34" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="H34" s="7" t="s">
-        <v>104</v>
+      <c r="H34" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>68</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>61</v>
+        <v>187</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>62</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="21"/>
+        <v>111</v>
+      </c>
+      <c r="N34" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B35" s="14"/>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E35" s="23"/>
-      <c r="H35" s="7" t="s">
-        <v>105</v>
+      <c r="E35" s="13"/>
+      <c r="H35" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>68</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>61</v>
+        <v>189</v>
       </c>
       <c r="K35" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N35" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q35" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="L35" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B36" s="9"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="H36" s="7" t="s">
-        <v>106</v>
+      <c r="R35" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B36" s="5"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="H36" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>68</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>62</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="N36" s="29"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="29"/>
+    </row>
+    <row r="37" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="14" t="s">
         <v>43</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -1892,73 +2361,110 @@
       <c r="D37" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E37" s="22" t="s">
+      <c r="E37" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="H37" s="7" t="s">
-        <v>77</v>
+      <c r="H37" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="21"/>
+        <v>117</v>
+      </c>
+      <c r="N37" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="O37" s="22"/>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="22"/>
+      <c r="R37" s="22"/>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B38" s="14"/>
       <c r="C38" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E38" s="22"/>
-      <c r="H38" s="7" t="s">
-        <v>119</v>
+      <c r="E38" s="9"/>
+      <c r="H38" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="9"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="H39" s="7" t="s">
-        <v>120</v>
+      <c r="N38" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B39" s="5"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="H39" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="K39" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q39" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="L39" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B40" s="21" t="s">
+      <c r="R39" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B40" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -1967,73 +2473,108 @@
       <c r="D40" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E40" s="22" t="s">
+      <c r="E40" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="H40" s="7" t="s">
-        <v>8</v>
+      <c r="H40" s="4" t="s">
+        <v>191</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>56</v>
+        <v>189</v>
       </c>
       <c r="K40" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q40" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="L40" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B41" s="21"/>
+      <c r="R40" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B41" s="14"/>
       <c r="C41" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E41" s="22"/>
-      <c r="H41" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="I41" s="1" t="s">
+      <c r="E41" s="9"/>
+      <c r="H41" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="I41" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="J41" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K41" s="1" t="s">
+      <c r="J41" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="K41" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="L41" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B42" s="9"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="H42" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="I42" s="1" t="s">
+      <c r="L41" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B42" s="5"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="H42" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="I42" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="J42" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="K42" s="1" t="s">
+      <c r="J42" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="K42" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="L42" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B43" s="21" t="s">
+      <c r="L42" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="N42" s="29"/>
+      <c r="O42" s="29"/>
+      <c r="P42" s="29"/>
+      <c r="Q42" s="29"/>
+      <c r="R42" s="29"/>
+    </row>
+    <row r="43" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B43" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -2042,119 +2583,180 @@
       <c r="D43" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E43" s="22" t="s">
+      <c r="E43" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="H43" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B44" s="21"/>
+      <c r="H43" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="I43" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="J43" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="K43" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="L43" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="N43" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="O43" s="22"/>
+      <c r="P43" s="22"/>
+      <c r="Q43" s="22"/>
+      <c r="R43" s="22"/>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B44" s="14"/>
       <c r="C44" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E44" s="22"/>
-      <c r="H44" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E44" s="9"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="N44" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="O44" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="P44" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q44" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="R44" s="27" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="26"/>
       <c r="C45" s="26"/>
       <c r="D45" s="26"/>
       <c r="E45" s="26"/>
-      <c r="H45" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="I45" s="1" t="s">
+      <c r="H45" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="25"/>
+      <c r="N45" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="O45" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="J45" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K45" s="1" t="s">
+      <c r="P45" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q45" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="L45" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B46" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="C46" s="31" t="s">
+      <c r="R45" s="27" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B46" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D46" s="31" t="s">
+      <c r="D46" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E46" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>125</v>
+      <c r="E46" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="I46" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B47" s="9"/>
+      <c r="C47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E47" s="9"/>
+      <c r="H47" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I47" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J46" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K46" s="1" t="s">
+      <c r="J47" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K47" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="L46" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="22"/>
-      <c r="C47" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="D47" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="E47" s="22"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-    </row>
-    <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="H48" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="I48" s="27"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="27"/>
-      <c r="L48" s="27"/>
-    </row>
-    <row r="49" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H49" s="7" t="s">
-        <v>3</v>
+      <c r="L47" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B48" s="26"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="H48" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B49" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>67</v>
@@ -2163,408 +2765,732 @@
         <v>56</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H50" s="7" t="s">
-        <v>136</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B50" s="13"/>
+      <c r="C50" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E50" s="13"/>
+      <c r="H50" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>138</v>
+        <v>56</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>62</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="51" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H51" s="7" t="s">
-        <v>66</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B51" s="26"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="H51" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="I51" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="H52" s="26"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="26"/>
+      <c r="L52" s="26"/>
+    </row>
+    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B53" s="26"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
+      <c r="H53" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="I53" s="24"/>
+      <c r="J53" s="24"/>
+      <c r="K53" s="24"/>
+      <c r="L53" s="25"/>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B54" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B55" s="9"/>
+      <c r="C55" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" s="9"/>
+      <c r="H55" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B56" s="26"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="H56" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="E57" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H58" s="26"/>
+      <c r="I58" s="26"/>
+      <c r="J58" s="26"/>
+      <c r="K58" s="26"/>
+      <c r="L58" s="26"/>
+    </row>
+    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H59" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="I59" s="24"/>
+      <c r="J59" s="24"/>
+      <c r="K59" s="24"/>
+      <c r="L59" s="25"/>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H60" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H61" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H62" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H63" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H64" s="26"/>
+      <c r="I64" s="26"/>
+      <c r="J64" s="26"/>
+      <c r="K64" s="26"/>
+      <c r="L64" s="26"/>
+    </row>
+    <row r="65" spans="8:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H65" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="I65" s="24"/>
+      <c r="J65" s="24"/>
+      <c r="K65" s="24"/>
+      <c r="L65" s="25"/>
+    </row>
+    <row r="66" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H66" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H67" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H68" s="26"/>
+      <c r="I68" s="26"/>
+      <c r="J68" s="26"/>
+      <c r="K68" s="26"/>
+      <c r="L68" s="26"/>
+    </row>
+    <row r="69" spans="8:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H69" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="I69" s="24"/>
+      <c r="J69" s="24"/>
+      <c r="K69" s="24"/>
+      <c r="L69" s="25"/>
+    </row>
+    <row r="70" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H71" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H72" s="26"/>
+      <c r="I72" s="26"/>
+      <c r="J72" s="26"/>
+      <c r="K72" s="26"/>
+      <c r="L72" s="26"/>
+    </row>
+    <row r="73" spans="8:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H73" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="I73" s="24"/>
+      <c r="J73" s="24"/>
+      <c r="K73" s="24"/>
+      <c r="L73" s="25"/>
+    </row>
+    <row r="74" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H74" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H75" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H76" s="26"/>
+      <c r="I76" s="26"/>
+      <c r="J76" s="26"/>
+      <c r="K76" s="26"/>
+      <c r="L76" s="26"/>
+    </row>
+    <row r="77" spans="8:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H77" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="I77" s="24"/>
+      <c r="J77" s="24"/>
+      <c r="K77" s="24"/>
+      <c r="L77" s="25"/>
+    </row>
+    <row r="78" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H78" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="79" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H79" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="80" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H80" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="81" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H81" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I81" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J51" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="52" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H52" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K52" s="1" t="s">
+      <c r="J81" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="K81" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="L52" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="53" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H53" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K53" s="1" t="s">
+      <c r="L81" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="82" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H82" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K82" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="L53" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="54" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H54" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K54" s="1" t="s">
+      <c r="L82" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="83" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H83" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K83" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="L54" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="55" spans="8:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H55" s="26"/>
-      <c r="I55" s="26"/>
-      <c r="J55" s="26"/>
-      <c r="K55" s="26"/>
-      <c r="L55" s="26"/>
-    </row>
-    <row r="56" spans="8:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="H56" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="I56" s="27"/>
-      <c r="J56" s="27"/>
-      <c r="K56" s="27"/>
-      <c r="L56" s="27"/>
-    </row>
-    <row r="57" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H57" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K57" s="1" t="s">
+      <c r="L83" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="84" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H84" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="85" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H85" s="29"/>
+      <c r="I85" s="29"/>
+      <c r="J85" s="29"/>
+      <c r="K85" s="29"/>
+      <c r="L85" s="29"/>
+    </row>
+    <row r="86" spans="8:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H86" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="I86" s="24"/>
+      <c r="J86" s="24"/>
+      <c r="K86" s="24"/>
+      <c r="L86" s="25"/>
+    </row>
+    <row r="87" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H87" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K87" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L57" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="58" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H58" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="I58" s="1" t="s">
+      <c r="L87" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="88" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H88" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="I88" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J58" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K58" s="1" t="s">
+      <c r="J88" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="89" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H89" s="29"/>
+      <c r="I89" s="29"/>
+      <c r="J89" s="29"/>
+      <c r="K89" s="29"/>
+      <c r="L89" s="29"/>
+    </row>
+    <row r="90" spans="8:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H90" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="I90" s="24"/>
+      <c r="J90" s="24"/>
+      <c r="K90" s="24"/>
+      <c r="L90" s="25"/>
+    </row>
+    <row r="91" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H91" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="92" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H92" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K92" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="L58" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="59" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H59" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K59" s="1" t="s">
+      <c r="L92" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="93" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H93" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="94" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H94" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K94" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="L59" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="60" spans="8:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H60" s="26"/>
-      <c r="I60" s="26"/>
-      <c r="J60" s="26"/>
-      <c r="K60" s="26"/>
-      <c r="L60" s="26"/>
-    </row>
-    <row r="61" spans="8:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="H61" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="I61" s="27"/>
-      <c r="J61" s="27"/>
-      <c r="K61" s="27"/>
-      <c r="L61" s="27"/>
-    </row>
-    <row r="62" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H62" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="L62" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="63" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H63" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="L63" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="64" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H64" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L64" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="65" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H65" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L65" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="66" spans="8:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H66" s="26"/>
-      <c r="I66" s="26"/>
-      <c r="J66" s="26"/>
-      <c r="K66" s="26"/>
-      <c r="L66" s="26"/>
-    </row>
-    <row r="67" spans="8:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="H67" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="I67" s="27"/>
-      <c r="J67" s="27"/>
-      <c r="K67" s="27"/>
-      <c r="L67" s="27"/>
-    </row>
-    <row r="68" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H68" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K68" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="L68" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="69" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H69" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="L69" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="70" spans="8:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H70" s="26"/>
-      <c r="I70" s="26"/>
-      <c r="J70" s="26"/>
-      <c r="K70" s="26"/>
-      <c r="L70" s="26"/>
-    </row>
-    <row r="71" spans="8:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="H71" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="I71" s="27"/>
-      <c r="J71" s="27"/>
-      <c r="K71" s="27"/>
-      <c r="L71" s="27"/>
-    </row>
-    <row r="72" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H72" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K72" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="L72" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="73" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H73" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K73" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="L73" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="74" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H74" s="26"/>
-      <c r="I74" s="26"/>
-      <c r="J74" s="26"/>
-      <c r="K74" s="26"/>
-      <c r="L74" s="26"/>
-    </row>
-    <row r="75" spans="8:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="H75" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="I75" s="30"/>
-      <c r="J75" s="30"/>
-      <c r="K75" s="30"/>
-      <c r="L75" s="30"/>
-    </row>
-    <row r="76" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H76" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K76" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="L76" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="77" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H77" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J77" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K77" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="L77" s="1" t="s">
-        <v>70</v>
+      <c r="L94" s="1" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="H75:L75"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="H71:L71"/>
-    <mergeCell ref="H67:L67"/>
-    <mergeCell ref="H61:L61"/>
-    <mergeCell ref="H56:L56"/>
-    <mergeCell ref="H48:L48"/>
+  <mergeCells count="50">
+    <mergeCell ref="H45:L45"/>
+    <mergeCell ref="H53:L53"/>
+    <mergeCell ref="H77:L77"/>
+    <mergeCell ref="H73:L73"/>
+    <mergeCell ref="H69:L69"/>
+    <mergeCell ref="H65:L65"/>
+    <mergeCell ref="H59:L59"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="N12:R12"/>
+    <mergeCell ref="N16:R16"/>
+    <mergeCell ref="N20:R20"/>
+    <mergeCell ref="N24:R24"/>
+    <mergeCell ref="N33:R33"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="H4:R4"/>
+    <mergeCell ref="H90:L90"/>
+    <mergeCell ref="H86:L86"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="E27:E32"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="B37:B38"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="E17:E20"/>
     <mergeCell ref="B17:B20"/>
@@ -2576,22 +3502,12 @@
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B14:B15"/>
-    <mergeCell ref="E27:E32"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="E54:E55"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
